--- a/target/test-classes/Keystone-online-freedata.xlsx
+++ b/target/test-classes/Keystone-online-freedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\Github\ReadData\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\Github\ReadData\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936014D3-5EE7-41C5-92A6-A67FBC84BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88548896-D0CB-49B1-839C-F6312FF3115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="290" windowWidth="17300" windowHeight="8890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
